--- a/biology/Botanique/Begonia_blancii/Begonia_blancii.xlsx
+++ b/biology/Botanique/Begonia_blancii/Begonia_blancii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia blancii est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est endémique de l'île de Palawan, aux Philippines. L'espèce fait partie de la section Diploclinium. Elle a été décrite en 2011 par les botaniste Mark Hughes et son homologue chinois Ching-I Peng. L'épithète spécifique blancii signifie « de Blanc » en hommage au botaniste Patrick Blanc[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia blancii est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est endémique de l'île de Palawan, aux Philippines. L'espèce fait partie de la section Diploclinium. Elle a été décrite en 2011 par les botaniste Mark Hughes et son homologue chinois Ching-I Peng. L'épithète spécifique blancii signifie « de Blanc » en hommage au botaniste Patrick Blanc.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication
-Hughes, M., Rubite, R.R., Kono, Y. &amp; Peng, C-I. (2011). Begonia blancii (sect. Diploclinium), a new species endemic to the Philippine island of Palawan. Botanical Studies 52:203-209.
+          <t>Publication</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hughes, M., Rubite, R.R., Kono, Y. &amp; Peng, C-I. (2011). Begonia blancii (sect. Diploclinium), a new species endemic to the Philippine island of Palawan. Botanical Studies 52:203-209.
 </t>
         </is>
       </c>
@@ -543,9 +560,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des Philippines[3]. Elle est endémique de Palawan, une île du Sud-Ouest des Philippines[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des Philippines. Elle est endémique de Palawan, une île du Sud-Ouest des Philippines.
 </t>
         </is>
       </c>
